--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -867,7 +867,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReference|https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCFolder)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReference|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCFolder)
 </t>
   </si>
   <si>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
